--- a/biology/Botanique/Epidendrum/Epidendrum.xlsx
+++ b/biology/Botanique/Epidendrum/Epidendrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epidendrum est un  genre d'orchidées de 1 000 espèces, appelées communément épidendrons, originaires d'Amérique tropicale et semitropicale (de la Floride à l'Argentine). Les espèces de ce genre sont très variées, aussi bien par la taille que par l'aspect. Elles peuvent être épiphytes, lithophytes ou terrestres. Grands amateurs de lumière certains épidendrons tolèrent même le plein soleil tel l'Epidendrum ibaguense. La multiplication peut se faire facilement par séparations des tiges ou des pseudobulbes. Les épidendrons font partie des premières orchidées qui furent importées en Europe (E. difforme).
 Les épidendrums sont proches parents des genres Cattleya, Laelia et Encyclia. Ces quatre genres ont fréquemment été hybridés par les amateurs.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amphiglottis Salisb.
@@ -574,7 +588,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Epidendrum anceps Jacq.
@@ -1374,6 +1390,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
